--- a/resultados_ollama_granite3_2_2b_zeroshot.xlsx
+++ b/resultados_ollama_granite3_2_2b_zeroshot.xlsx
@@ -463,23 +463,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves repeated failed login attempts from a single IP address targeting an SSH server on your network. These attempts indicate potential brute force or automated attack attempts to gain unauthorized access, which falls under the category of Misuse of Resources (CAT10). This is because the attacker is exploiting resources (network bandwidth and processing power) for non-authorized purposes by attempting numerous login credentials without success.</t>
+          <t>Category: CAT5
+Explanation: The incident involves unauthorized access attempts from a specific IP address (32a64212fc) to a server with root and other user accounts. This behavior aligns with the exploitation of vulnerabilities, as described in Category 5 (Vulnerability Exploitation). In this case, the attacker is attempting to brute force or exploit authentication mechanisms for these user accounts, which falls under the category of using technical flaws for attacks.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves repeated failed login attempts from a single IP address targeting an SSH server on your network. These attempts indicate potential brute force or automated attack attempts to gain unauthorized access, which falls under the category of Misuse of Resources (CAT10). This is because the attacker is exploiting resources (network bandwidth and processing power) for non-authorized purposes by attempting numerous login credentials without success.'}</t>
+          <t>{'Category': 'CAT5', 'Explanation': 'The incident involves unauthorized access attempts from a specific IP address (32a64212fc) to a server with root and other user accounts. This behavior aligns with the exploitation of vulnerabilities, as described in Category 5 (Vulnerability Exploitation). In this case, the attacker is attempting to brute force or exploit authentication mechanisms for these user accounts, which falls under the category of using technical flaws for attacks.'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CAT10</t>
+          <t>CAT5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The incident involves repeated failed login attempts from a single IP address targeting an SSH server on your network. These attempts indicate potential brute force or automated attack attempts to gain unauthorized access, which falls under the category of Misuse of Resources (CAT10). This is because the attacker is exploiting resources (network bandwidth and processing power) for non-authorized purposes by attempting numerous login credentials without success.</t>
+          <t>The incident involves unauthorized access attempts from a specific IP address (32a64212fc) to a server with root and other user accounts. This behavior aligns with the exploitation of vulnerabilities, as described in Category 5 (Vulnerability Exploitation). In this case, the attacker is attempting to brute force or exploit authentication mechanisms for these user accounts, which falls under the category of using technical flaws for attacks.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,12 +492,12 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves unauthorized access attempts from a single IP address ([IP_ADDRESS_b29a075d57]) to a Brazilian network, as indicated by the SSH logs. These attempts were detected and logged by Fail2Ban, an automated system designed for intrusion prevention. This behavior constitutes misuse of resources since it involves exploiting the network's security measures (SSH authentication failures) without authorization. The responsible parties should investigate these incidents to prevent further unauthorized access and potential data breaches.</t>
+Explanation: The incident involves repeated failed login attempts from a single IP address against multiple user accounts on the same server. This behavior suggests an attempt to exploit weak credentials or brute force attacks, which falls under misuse of resources as the attacker is using computational resources for unauthorized access attempts rather than legitimate purposes.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': "The incident involves unauthorized access attempts from a single IP address ([IP_ADDRESS_b29a075d57]) to a Brazilian network, as indicated by the SSH logs. These attempts were detected and logged by Fail2Ban, an automated system designed for intrusion prevention. This behavior constitutes misuse of resources since it involves exploiting the network's security measures (SSH authentication failures) without authorization. The responsible parties should investigate these incidents to prevent further unauthorized access and potential data breaches."}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves repeated failed login attempts from a single IP address against multiple user accounts on the same server. This behavior suggests an attempt to exploit weak credentials or brute force attacks, which falls under misuse of resources as the attacker is using computational resources for unauthorized access attempts rather than legitimate purposes.'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The incident involves unauthorized access attempts from a single IP address ([IP_ADDRESS_b29a075d57]) to a Brazilian network, as indicated by the SSH logs. These attempts were detected and logged by Fail2Ban, an automated system designed for intrusion prevention. This behavior constitutes misuse of resources since it involves exploiting the network's security measures (SSH authentication failures) without authorization. The responsible parties should investigate these incidents to prevent further unauthorized access and potential data breaches.</t>
+          <t>The incident involves repeated failed login attempts from a single IP address against multiple user accounts on the same server. This behavior suggests an attempt to exploit weak credentials or brute force attacks, which falls under misuse of resources as the attacker is using computational resources for unauthorized access attempts rather than legitimate purposes.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,23 +519,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Category: CAT2
-Explanation: The incident involves an IP address being flagged as potentially malicious based on its behavior during email communication attempts. This aligns with malware detection, where unauthorized or suspicious activities are indicative of infection by malicious code (e.g., ransomware, Trojan horse). The log lines show failed connections and rejections, suggesting an attempt to exploit vulnerabilities or perform denial-of-service attacks.</t>
+          <t>Category: CAT10 (Misuse of Resources)
+Explanation: The incident involves a potential abuse from an IP address, which has been detected by Fail2Ban and reported through email. This indicates that the IP address is attempting unauthorized activities on the network, such as brute force attacks or other malicious actions. Although not explicitly stated, this behavior can be classified under CAT10 (Misuse of Resources) due to the potential for resource abuse, like consuming bandwidth or processing power for malicious purposes.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT2', 'Explanation': 'The incident involves an IP address being flagged as potentially malicious based on its behavior during email communication attempts. This aligns with malware detection, where unauthorized or suspicious activities are indicative of infection by malicious code (e.g., ransomware, Trojan horse). The log lines show failed connections and rejections, suggesting an attempt to exploit vulnerabilities or perform denial-of-service attacks.'}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves a potential abuse from an IP address, which has been detected by Fail2Ban and reported through email. This indicates that the IP address is attempting unauthorized activities on the network, such as brute force attacks or other malicious actions. Although not explicitly stated, this behavior can be classified under CAT10 (Misuse of Resources) due to the potential for resource abuse, like consuming bandwidth or processing power for malicious purposes.'}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CAT2</t>
+          <t>CAT10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The incident involves an IP address being flagged as potentially malicious based on its behavior during email communication attempts. This aligns with malware detection, where unauthorized or suspicious activities are indicative of infection by malicious code (e.g., ransomware, Trojan horse). The log lines show failed connections and rejections, suggesting an attempt to exploit vulnerabilities or perform denial-of-service attacks.</t>
+          <t>The incident involves a potential abuse from an IP address, which has been detected by Fail2Ban and reported through email. This indicates that the IP address is attempting unauthorized activities on the network, such as brute force attacks or other malicious actions. Although not explicitly stated, this behavior can be classified under CAT10 (Misuse of Resources) due to the potential for resource abuse, like consuming bandwidth or processing power for malicious purposes.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -548,12 +548,12 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Category: CAT5
-Explanation: The incident involves exploitation of a vulnerability (SSH brute force attempts) leading to unauthorized access attempts. This aligns with the NIST category for Vulnerability Exploitation (CAT5). The log entries show repeated failed authentication attempts from various user accounts on the targeted IP address, indicating an attempt to gain unauthorized access via SSH.</t>
+Explanation: The incident involves unauthorized access attempts (failed password and authentication failures) from a known IP address on the network. This aligns with the NIST Category 5: Vulnerability Exploitation, as it describes using technical flaws or weaknesses in system configurations to gain unauthorized access. In this case, the vulnerability is likely related to weak SSH configuration or misconfigured user accounts, which allowed brute force attacks from the given IP address.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT5', 'Explanation': 'The incident involves exploitation of a vulnerability (SSH brute force attempts) leading to unauthorized access attempts. This aligns with the NIST category for Vulnerability Exploitation (CAT5). The log entries show repeated failed authentication attempts from various user accounts on the targeted IP address, indicating an attempt to gain unauthorized access via SSH.'}</t>
+          <t>{'Category': 'CAT5', 'Explanation': 'The incident involves unauthorized access attempts (failed password and authentication failures) from a known IP address on the network. This aligns with the NIST Category 5: Vulnerability Exploitation, as it describes using technical flaws or weaknesses in system configurations to gain unauthorized access. In this case, the vulnerability is likely related to weak SSH configuration or misconfigured user accounts, which allowed brute force attacks from the given IP address.'}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The incident involves exploitation of a vulnerability (SSH brute force attempts) leading to unauthorized access attempts. This aligns with the NIST category for Vulnerability Exploitation (CAT5). The log entries show repeated failed authentication attempts from various user accounts on the targeted IP address, indicating an attempt to gain unauthorized access via SSH.</t>
+          <t>The incident involves unauthorized access attempts (failed password and authentication failures) from a known IP address on the network. This aligns with the NIST Category 5: Vulnerability Exploitation, as it describes using technical flaws or weaknesses in system configurations to gain unauthorized access. In this case, the vulnerability is likely related to weak SSH configuration or misconfigured user accounts, which allowed brute force attacks from the given IP address.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,23 +575,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Category: CAT8
-Explanation: The incident involves unauthorized physical access or impact, as evidenced by the mention of "computers localizados em sua rede" (computers in your network) being potentially compromised. This suggests a physical breach, fitting into the CAT8 category for Physical Incident.</t>
+          <t>Category: CAT6 (Insider Abuse)
+Explanation: The incident involves potential compromise of local computers in a network by malware SystemBC. This suggests malicious or negligent actions by internal users within the organization, as they are responsible for maintaining and securing these systems. The use of this malware as a backdoor for lateral movement indicates intentional or careless behavior that could lead to unauthorized access or data exfiltration.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT8', 'Explanation': 'The incident involves unauthorized physical access or impact, as evidenced by the mention of "computers localizados em sua rede" (computers in your network) being potentially compromised. This suggests a physical breach, fitting into the CAT8 category for Physical Incident.'}</t>
+          <t>{'Category': 'CAT6', 'Explanation': 'The incident involves potential compromise of local computers in a network by malware SystemBC. This suggests malicious or negligent actions by internal users within the organization, as they are responsible for maintaining and securing these systems. The use of this malware as a backdoor for lateral movement indicates intentional or careless behavior that could lead to unauthorized access or data exfiltration.'}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CAT8</t>
+          <t>CAT6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The incident involves unauthorized physical access or impact, as evidenced by the mention of "computers localizados em sua rede" (computers in your network) being potentially compromised. This suggests a physical breach, fitting into the CAT8 category for Physical Incident.</t>
+          <t>The incident involves potential compromise of local computers in a network by malware SystemBC. This suggests malicious or negligent actions by internal users within the organization, as they are responsible for maintaining and securing these systems. The use of this malware as a backdoor for lateral movement indicates intentional or careless behavior that could lead to unauthorized access or data exfiltration.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -604,12 +604,12 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Category: CAT6 (Insider Abuse)
-Explanation: The incident involves potential compromise of local computers in a network by malware SystemBC. This suggests malicious or negligent actions by internal users, as insiders could have unintentionally introduced the malware through their activities, such as clicking on phishing links or using weak passwords. The recommendation to investigate other machines and reinstall infected ones indicates a concern for potential further compromise within the network due to this insider threat.</t>
+Explanation: The incident involves potential compromise of local computers in a network by malware SystemBC. This suggests malicious or negligent actions by internal users within the organization, as they may have unknowingly installed or allowed this malware to persist on their systems. The recommendation to investigate other machines and reinstall infected ones with updated software further supports insider abuse, indicating a possible lack of proper security awareness training or oversight among employees.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT6', 'Explanation': 'The incident involves potential compromise of local computers in a network by malware SystemBC. This suggests malicious or negligent actions by internal users, as insiders could have unintentionally introduced the malware through their activities, such as clicking on phishing links or using weak passwords. The recommendation to investigate other machines and reinstall infected ones indicates a concern for potential further compromise within the network due to this insider threat.'}</t>
+          <t>{'Category': 'CAT6', 'Explanation': 'The incident involves potential compromise of local computers in a network by malware SystemBC. This suggests malicious or negligent actions by internal users within the organization, as they may have unknowingly installed or allowed this malware to persist on their systems. The recommendation to investigate other machines and reinstall infected ones with updated software further supports insider abuse, indicating a possible lack of proper security awareness training or oversight among employees.'}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The incident involves potential compromise of local computers in a network by malware SystemBC. This suggests malicious or negligent actions by internal users, as insiders could have unintentionally introduced the malware through their activities, such as clicking on phishing links or using weak passwords. The recommendation to investigate other machines and reinstall infected ones indicates a concern for potential further compromise within the network due to this insider threat.</t>
+          <t>The incident involves potential compromise of local computers in a network by malware SystemBC. This suggests malicious or negligent actions by internal users within the organization, as they may have unknowingly installed or allowed this malware to persist on their systems. The recommendation to investigate other machines and reinstall infected ones with updated software further supports insider abuse, indicating a possible lack of proper security awareness training or oversight among employees.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -632,12 +632,12 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves unauthorized access attempts from a single IP address ([IP_ADDRESS_984299dc8f]) to the network. These attempts were detected by Fail2Ban, indicating that an attacker was attempting to exploit potential vulnerabilities in the system for malicious purposes (e.g., brute force attacks). This behavior is classified as CAT10: Misuse of Resources since it represents unauthorized usage of resources within a network for potentially harmful activities.</t>
+Explanation: The incident involves an email abuse notification where the sender detected suspicious activity from a specific IP address. This indicates that resources were misused for unauthorized purposes, such as sending spam or attempting to exploit the network, which falls under CAT10 – Misuse of Resources.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves unauthorized access attempts from a single IP address ([IP_ADDRESS_984299dc8f]) to the network. These attempts were detected by Fail2Ban, indicating that an attacker was attempting to exploit potential vulnerabilities in the system for malicious purposes (e.g., brute force attacks). This behavior is classified as CAT10: Misuse of Resources since it represents unauthorized usage of resources within a network for potentially harmful activities.'}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves an email abuse notification where the sender detected suspicious activity from a specific IP address. This indicates that resources were misused for unauthorized purposes, such as sending spam or attempting to exploit the network, which falls under CAT10 – Misuse of Resources.'}</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The incident involves unauthorized access attempts from a single IP address ([IP_ADDRESS_984299dc8f]) to the network. These attempts were detected by Fail2Ban, indicating that an attacker was attempting to exploit potential vulnerabilities in the system for malicious purposes (e.g., brute force attacks). This behavior is classified as CAT10: Misuse of Resources since it represents unauthorized usage of resources within a network for potentially harmful activities.</t>
+          <t>The incident involves an email abuse notification where the sender detected suspicious activity from a specific IP address. This indicates that resources were misused for unauthorized purposes, such as sending spam or attempting to exploit the network, which falls under CAT10 – Misuse of Resources.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -660,12 +660,12 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves unauthorized attempts to connect from a specific IP address ([IP_ADDRESS_984299dc8f]) to the email server. These attempts were detected by Fail2Ban and logged, indicating potential misuse of resources for malicious purposes such as brute force attacks or scanning for vulnerabilities. The log lines show repeated failed connection attempts from this IP address, suggesting an attempt to exploit the system through network services like SMTP. This behavior aligns with CAT10 (Misuse of Resources), which covers unauthorized uses of systems for non-approved activities.</t>
+Explanation: The incident involves unauthorized network traffic originating from a specific IP address. This activity can be classified as misuse of resources since it constitutes an attempt to exploit the network, potentially leading to resource abuse such as increased load on servers or bandwidth consumption. In this case, the sender's system (pfsense-svp.furg.br) attempted to connect and send emails but was rejected due to the recipient's email server blocking the connection. This behavior indicates an attempt to misuse resources for malicious purposes, aligning with CAT10: Misuse of Resources.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves unauthorized attempts to connect from a specific IP address ([IP_ADDRESS_984299dc8f]) to the email server. These attempts were detected by Fail2Ban and logged, indicating potential misuse of resources for malicious purposes such as brute force attacks or scanning for vulnerabilities. The log lines show repeated failed connection attempts from this IP address, suggesting an attempt to exploit the system through network services like SMTP. This behavior aligns with CAT10 (Misuse of Resources), which covers unauthorized uses of systems for non-approved activities.'}</t>
+          <t>{'Category': 'CAT10', 'Explanation': "The incident involves unauthorized network traffic originating from a specific IP address. This activity can be classified as misuse of resources since it constitutes an attempt to exploit the network, potentially leading to resource abuse such as increased load on servers or bandwidth consumption. In this case, the sender's system (pfsense-svp.furg.br) attempted to connect and send emails but was rejected due to the recipient's email server blocking the connection. This behavior indicates an attempt to misuse resources for malicious purposes, aligning with CAT10: Misuse of Resources."}</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The incident involves unauthorized attempts to connect from a specific IP address ([IP_ADDRESS_984299dc8f]) to the email server. These attempts were detected by Fail2Ban and logged, indicating potential misuse of resources for malicious purposes such as brute force attacks or scanning for vulnerabilities. The log lines show repeated failed connection attempts from this IP address, suggesting an attempt to exploit the system through network services like SMTP. This behavior aligns with CAT10 (Misuse of Resources), which covers unauthorized uses of systems for non-approved activities.</t>
+          <t>The incident involves unauthorized network traffic originating from a specific IP address. This activity can be classified as misuse of resources since it constitutes an attempt to exploit the network, potentially leading to resource abuse such as increased load on servers or bandwidth consumption. In this case, the sender's system (pfsense-svp.furg.br) attempted to connect and send emails but was rejected due to the recipient's email server blocking the connection. This behavior indicates an attempt to misuse resources for malicious purposes, aligning with CAT10: Misuse of Resources.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -688,12 +688,12 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves unauthorized activities on a machine, which suggests that it has been compromised and used for malicious purposes. This aligns with the category of Misuse of Resources (CAT10), where systems are utilized for non-authorized purposes such as cryptocurrency mining or spam campaigns. In this case, the machine is likely being exploited to carry out attacks on other networks.</t>
+Explanation: The incident involves unauthorized activities on a machine, possibly compromised by an attacker using it for malicious purposes such as launching attacks or data exfiltration. This falls under the category of Misuse of Resources, where systems are used for non-authorized purposes like cryptocurrency mining, spam campaigns, or malware hosting. The CERT.br is alerting the recipient about this potential misuse and requesting their involvement in investigating the incident.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves unauthorized activities on a machine, which suggests that it has been compromised and used for malicious purposes. This aligns with the category of Misuse of Resources (CAT10), where systems are utilized for non-authorized purposes such as cryptocurrency mining or spam campaigns. In this case, the machine is likely being exploited to carry out attacks on other networks.'}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves unauthorized activities on a machine, possibly compromised by an attacker using it for malicious purposes such as launching attacks or data exfiltration. This falls under the category of Misuse of Resources, where systems are used for non-authorized purposes like cryptocurrency mining, spam campaigns, or malware hosting. The CERT.br is alerting the recipient about this potential misuse and requesting their involvement in investigating the incident.'}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The incident involves unauthorized activities on a machine, which suggests that it has been compromised and used for malicious purposes. This aligns with the category of Misuse of Resources (CAT10), where systems are utilized for non-authorized purposes such as cryptocurrency mining or spam campaigns. In this case, the machine is likely being exploited to carry out attacks on other networks.</t>
+          <t>The incident involves unauthorized activities on a machine, possibly compromised by an attacker using it for malicious purposes such as launching attacks or data exfiltration. This falls under the category of Misuse of Resources, where systems are used for non-authorized purposes like cryptocurrency mining, spam campaigns, or malware hosting. The CERT.br is alerting the recipient about this potential misuse and requesting their involvement in investigating the incident.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -716,12 +716,12 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves an IP address used for a coordinated DDoS attack. This suggests that the IP address was misused by an attacker to launch a malicious network traffic flood, which is a form of resource abuse. The attack caused significant packet loss and required emergency null-routing on the victim's side, indicating that the resources were intentionally overloaded for nefarious purposes.</t>
+Explanation: The incident involves an IP address used for a DDoS attack, which is a form of unauthorized resource misuse. This compromised host was part of a botnet that generated significant traffic, causing packet loss and requiring emergency null-routing on the victim's side to mitigate. Such actions demonstrate the misuse of network resources for malicious purposes, aligning with CAT10.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': "The incident involves an IP address used for a coordinated DDoS attack. This suggests that the IP address was misused by an attacker to launch a malicious network traffic flood, which is a form of resource abuse. The attack caused significant packet loss and required emergency null-routing on the victim's side, indicating that the resources were intentionally overloaded for nefarious purposes."}</t>
+          <t>{'Category': 'CAT10', 'Explanation': "The incident involves an IP address used for a DDoS attack, which is a form of unauthorized resource misuse. This compromised host was part of a botnet that generated significant traffic, causing packet loss and requiring emergency null-routing on the victim's side to mitigate. Such actions demonstrate the misuse of network resources for malicious purposes, aligning with CAT10."}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The incident involves an IP address used for a coordinated DDoS attack. This suggests that the IP address was misused by an attacker to launch a malicious network traffic flood, which is a form of resource abuse. The attack caused significant packet loss and required emergency null-routing on the victim's side, indicating that the resources were intentionally overloaded for nefarious purposes.</t>
+          <t>The incident involves an IP address used for a DDoS attack, which is a form of unauthorized resource misuse. This compromised host was part of a botnet that generated significant traffic, causing packet loss and requiring emergency null-routing on the victim's side to mitigate. Such actions demonstrate the misuse of network resources for malicious purposes, aligning with CAT10.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -744,12 +744,12 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves an IP address being used for a coordinated DDoS attack, which is a form of unauthorized resource misuse. This activity can lead to network congestion and potential service disruptions, as seen in this case where the attacker's network caused significant packet loss for clients due to external link saturation. The emergency null-route operation required on the victim's side further highlights the misuse of resources for malicious purposes.</t>
+Explanation: The incident involves an IP address used for a coordinated DDoS attack. This indicates that the network resources were misused by an attacker to launch this malicious activity, which is classified as CAT10 under NIST categories.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': "The incident involves an IP address being used for a coordinated DDoS attack, which is a form of unauthorized resource misuse. This activity can lead to network congestion and potential service disruptions, as seen in this case where the attacker's network caused significant packet loss for clients due to external link saturation. The emergency null-route operation required on the victim's side further highlights the misuse of resources for malicious purposes."}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves an IP address used for a coordinated DDoS attack. This indicates that the network resources were misused by an attacker to launch this malicious activity, which is classified as CAT10 under NIST categories.'}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The incident involves an IP address being used for a coordinated DDoS attack, which is a form of unauthorized resource misuse. This activity can lead to network congestion and potential service disruptions, as seen in this case where the attacker's network caused significant packet loss for clients due to external link saturation. The emergency null-route operation required on the victim's side further highlights the misuse of resources for malicious purposes.</t>
+          <t>The incident involves an IP address used for a coordinated DDoS attack. This indicates that the network resources were misused by an attacker to launch this malicious activity, which is classified as CAT10 under NIST categories.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -772,12 +772,12 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves an IP address that was used as part of a coordinated DDoS attack. This indicates unauthorized use of network resources for malicious purposes, specifically to flood the target with traffic and cause disruption. This behavior aligns with Category 10 (Misuse of Resources) in the NIST framework, which covers incidents where systems or resources are used for non-authorized purposes, such as cryptocurrency mining, spam campaigns, or malware hosting.</t>
+Explanation: The incident involves an IP address used for a coordinated DDoS attack. This indicates that the resources of this IP address were misused to carry out malicious activities, specifically targeting another network and causing significant packet loss due to external link saturation. This is classified as CAT10 (Misuse of Resources) because it describes unauthorized use of network bandwidth for harmful purposes, such as cryptocurrency mining or spam campaigns.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves an IP address that was used as part of a coordinated DDoS attack. This indicates unauthorized use of network resources for malicious purposes, specifically to flood the target with traffic and cause disruption. This behavior aligns with Category 10 (Misuse of Resources) in the NIST framework, which covers incidents where systems or resources are used for non-authorized purposes, such as cryptocurrency mining, spam campaigns, or malware hosting.'}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves an IP address used for a coordinated DDoS attack. This indicates that the resources of this IP address were misused to carry out malicious activities, specifically targeting another network and causing significant packet loss due to external link saturation. This is classified as CAT10 (Misuse of Resources) because it describes unauthorized use of network bandwidth for harmful purposes, such as cryptocurrency mining or spam campaigns.'}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The incident involves an IP address that was used as part of a coordinated DDoS attack. This indicates unauthorized use of network resources for malicious purposes, specifically to flood the target with traffic and cause disruption. This behavior aligns with Category 10 (Misuse of Resources) in the NIST framework, which covers incidents where systems or resources are used for non-authorized purposes, such as cryptocurrency mining, spam campaigns, or malware hosting.</t>
+          <t>The incident involves an IP address used for a coordinated DDoS attack. This indicates that the resources of this IP address were misused to carry out malicious activities, specifically targeting another network and causing significant packet loss due to external link saturation. This is classified as CAT10 (Misuse of Resources) because it describes unauthorized use of network bandwidth for harmful purposes, such as cryptocurrency mining or spam campaigns.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -800,12 +800,12 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves potential exploitation of a vulnerable Zimbra server for unauthorized purposes such as file uploads and execution of arbitrary code. This misuse could lead to abuse of user accounts for phishing campaigns or theft of sensitive information, indicating that the servers are being used inappropriately for non-authorized activities like cryptocurrency mining or spamming. The provided URLs suggest resources related to this issue, further supporting the classification as CAT10 (Misuse of Resources).</t>
+Explanation: The incident involves potential unauthorized modifications to servers running a vulnerable version of Zimbra Collaboration Suite. This misuse could lead to exploitation for phishing and stealing sensitive information, as well as executing arbitrary code without authentication or gaining unauthorized access to user accounts. To resolve this issue, the server software should be updated with the latest patches according to developer instructions (CAT11: Third-Party Issues). Additionally, checking for unusual processes, files, and network traffic in system logs can help determine if the server has been compromised (CAT4: Data Leak).</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves potential exploitation of a vulnerable Zimbra server for unauthorized purposes such as file uploads and execution of arbitrary code. This misuse could lead to abuse of user accounts for phishing campaigns or theft of sensitive information, indicating that the servers are being used inappropriately for non-authorized activities like cryptocurrency mining or spamming. The provided URLs suggest resources related to this issue, further supporting the classification as CAT10 (Misuse of Resources).'}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves potential unauthorized modifications to servers running a vulnerable version of Zimbra Collaboration Suite. This misuse could lead to exploitation for phishing and stealing sensitive information, as well as executing arbitrary code without authentication or gaining unauthorized access to user accounts. To resolve this issue, the server software should be updated with the latest patches according to developer instructions (CAT11: Third-Party Issues). Additionally, checking for unusual processes, files, and network traffic in system logs can help determine if the server has been compromised (CAT4: Data Leak).'}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The incident involves potential exploitation of a vulnerable Zimbra server for unauthorized purposes such as file uploads and execution of arbitrary code. This misuse could lead to abuse of user accounts for phishing campaigns or theft of sensitive information, indicating that the servers are being used inappropriately for non-authorized activities like cryptocurrency mining or spamming. The provided URLs suggest resources related to this issue, further supporting the classification as CAT10 (Misuse of Resources).</t>
+          <t>The incident involves potential unauthorized modifications to servers running a vulnerable version of Zimbra Collaboration Suite. This misuse could lead to exploitation for phishing and stealing sensitive information, as well as executing arbitrary code without authentication or gaining unauthorized access to user accounts. To resolve this issue, the server software should be updated with the latest patches according to developer instructions (CAT11: Third-Party Issues). Additionally, checking for unusual processes, files, and network traffic in system logs can help determine if the server has been compromised (CAT4: Data Leak).</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -827,23 +827,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves a router with BGP service exposed on the internet, which could be exploited for Denial of Service attacks against the BGP service of the organization's Autonomous System. This misuse of resources refers to using network equipment for unauthorized purposes, in this case, exposing critical infrastructure (BGP routers) to potential threats. The incident description emphasizes the need to protect and potentially disable the exposed BGP service to prevent such attacks.</t>
+          <t>Category: CAT6 (Insider Abuse)
+Explanation: The incident involves unauthorized exposure of BGP services on routers within an organization's network. This suggests that internal personnel may have inadvertently or intentionally exposed these critical services to the internet, posing a risk to the availability and security of their BGP service. The notification from CERT.br indicates that this is a concern for the recipient organization (ORGANIZATION_e3b0c44298), emphasizing insider abuse as the root cause.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': "The incident involves a router with BGP service exposed on the internet, which could be exploited for Denial of Service attacks against the BGP service of the organization's Autonomous System. This misuse of resources refers to using network equipment for unauthorized purposes, in this case, exposing critical infrastructure (BGP routers) to potential threats. The incident description emphasizes the need to protect and potentially disable the exposed BGP service to prevent such attacks."}</t>
+          <t>{'Category': 'CAT6', 'Explanation': "The incident involves unauthorized exposure of BGP services on routers within an organization's network. This suggests that internal personnel may have inadvertently or intentionally exposed these critical services to the internet, posing a risk to the availability and security of their BGP service. The notification from CERT.br indicates that this is a concern for the recipient organization (ORGANIZATION_e3b0c44298), emphasizing insider abuse as the root cause."}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CAT10</t>
+          <t>CAT6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The incident involves a router with BGP service exposed on the internet, which could be exploited for Denial of Service attacks against the BGP service of the organization's Autonomous System. This misuse of resources refers to using network equipment for unauthorized purposes, in this case, exposing critical infrastructure (BGP routers) to potential threats. The incident description emphasizes the need to protect and potentially disable the exposed BGP service to prevent such attacks.</t>
+          <t>The incident involves unauthorized exposure of BGP services on routers within an organization's network. This suggests that internal personnel may have inadvertently or intentionally exposed these critical services to the internet, posing a risk to the availability and security of their BGP service. The notification from CERT.br indicates that this is a concern for the recipient organization (ORGANIZATION_e3b0c44298), emphasizing insider abuse as the root cause.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -856,12 +856,12 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves unwanted activities from a single IP address attempting connections to various ports on our servers. This behavior can be classified as misuse of resources since the IP is exploiting potential vulnerabilities or attempting malicious actions, such as probing for weaknesses or launching attacks (e.g., brute force attempts). Although no direct evidence suggests malware infection at this time, the nature of these unsolicited connections and attempted database queries/injections indicates a possible attempt to misuse resources on our servers. Therefore, it falls under CAT10: Misuse of Resources.</t>
+Explanation: The incident involves unwanted activities from a single IP address (26a432a33e) attempting to connect to various ports on our servers. This behavior is indicative of a potential misuse of resources, possibly due to the presence of malware or compromised systems trying to exploit vulnerabilities in our infrastructure for non-authorized purposes such as scanning for known vulnerabilities (like those related to WordPress installations) and attempting database queries/injections/extractions. The fact that connections must complete the three-way handshake before being logged and processed, while spoofed connection attempts are not logged or blacklisted, further supports this classification.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves unwanted activities from a single IP address attempting connections to various ports on our servers. This behavior can be classified as misuse of resources since the IP is exploiting potential vulnerabilities or attempting malicious actions, such as probing for weaknesses or launching attacks (e.g., brute force attempts). Although no direct evidence suggests malware infection at this time, the nature of these unsolicited connections and attempted database queries/injections indicates a possible attempt to misuse resources on our servers. Therefore, it falls under CAT10: Misuse of Resources.'}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves unwanted activities from a single IP address (26a432a33e) attempting to connect to various ports on our servers. This behavior is indicative of a potential misuse of resources, possibly due to the presence of malware or compromised systems trying to exploit vulnerabilities in our infrastructure for non-authorized purposes such as scanning for known vulnerabilities (like those related to WordPress installations) and attempting database queries/injections/extractions. The fact that connections must complete the three-way handshake before being logged and processed, while spoofed connection attempts are not logged or blacklisted, further supports this classification.'}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The incident involves unwanted activities from a single IP address attempting connections to various ports on our servers. This behavior can be classified as misuse of resources since the IP is exploiting potential vulnerabilities or attempting malicious actions, such as probing for weaknesses or launching attacks (e.g., brute force attempts). Although no direct evidence suggests malware infection at this time, the nature of these unsolicited connections and attempted database queries/injections indicates a possible attempt to misuse resources on our servers. Therefore, it falls under CAT10: Misuse of Resources.</t>
+          <t>The incident involves unwanted activities from a single IP address (26a432a33e) attempting to connect to various ports on our servers. This behavior is indicative of a potential misuse of resources, possibly due to the presence of malware or compromised systems trying to exploit vulnerabilities in our infrastructure for non-authorized purposes such as scanning for known vulnerabilities (like those related to WordPress installations) and attempting database queries/injections/extractions. The fact that connections must complete the three-way handshake before being logged and processed, while spoofed connection attempts are not logged or blacklisted, further supports this classification.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -884,12 +884,12 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves a service (SSDP/UPnP) that can be exploited for Distributed Denial of Service (DDoS) attacks. This misuse of the SSDP service on devices like routers and CPEs consumes network resources, impacting both the organization's own network and potentially others. The CERT.br is alerting responsible parties to ensure this service is either disabled or properly configured to prevent such abuse, indicating a misuse of resources for malicious purposes.</t>
+Explanation: The incident involves the discovery of devices with SSDP/UPnP enabled on a network. This service can be misused to participate in Distributed Denial-of-Service (DDoS) attacks, consuming resources from the targeted network and potentially impacting third parties. By not disabling or properly configuring this service when it's not needed, the organization is allowing its resources to be exploited for malicious purposes, which falls under the CAT10 category of Misuse of Resources.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': "The incident involves a service (SSDP/UPnP) that can be exploited for Distributed Denial of Service (DDoS) attacks. This misuse of the SSDP service on devices like routers and CPEs consumes network resources, impacting both the organization's own network and potentially others. The CERT.br is alerting responsible parties to ensure this service is either disabled or properly configured to prevent such abuse, indicating a misuse of resources for malicious purposes."}</t>
+          <t>{'Category': 'CAT10', 'Explanation': "The incident involves the discovery of devices with SSDP/UPnP enabled on a network. This service can be misused to participate in Distributed Denial-of-Service (DDoS) attacks, consuming resources from the targeted network and potentially impacting third parties. By not disabling or properly configuring this service when it's not needed, the organization is allowing its resources to be exploited for malicious purposes, which falls under the CAT10 category of Misuse of Resources."}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The incident involves a service (SSDP/UPnP) that can be exploited for Distributed Denial of Service (DDoS) attacks. This misuse of the SSDP service on devices like routers and CPEs consumes network resources, impacting both the organization's own network and potentially others. The CERT.br is alerting responsible parties to ensure this service is either disabled or properly configured to prevent such abuse, indicating a misuse of resources for malicious purposes.</t>
+          <t>The incident involves the discovery of devices with SSDP/UPnP enabled on a network. This service can be misused to participate in Distributed Denial-of-Service (DDoS) attacks, consuming resources from the targeted network and potentially impacting third parties. By not disabling or properly configuring this service when it's not needed, the organization is allowing its resources to be exploited for malicious purposes, which falls under the CAT10 category of Misuse of Resources.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -912,12 +912,12 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves servers with NTP configured in a way that can be exploited for amplification attacks. These servers consume network resources by generating responses much larger than the requests, which is a misuse of their intended functionality as time synchronization tools. This misuse can lead to increased network traffic and potential impact on third parties due to DDoS attacks. The provided solution focuses on disabling specific NTP commands ("monlist" and "readvar") in ntpd.conf to prevent such abuse, indicating that the servers are being used for unauthorized purposes (misuse of resources).</t>
+Explanation: The incident involves servers that are misconfigured as Network Time Protocol (NTP) servers. These misconfigurations allow attackers to exploit these servers for Distributed Denial of Service (DDoS) attacks by generating large responses to forged requests, consuming network resources and potentially impacting third parties. This falls under the CAT10 category, which refers to the misuse of resources for unauthorized purposes, such as cryptocurrency mining or spam campaigns in this case.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves servers with NTP configured in a way that can be exploited for amplification attacks. These servers consume network resources by generating responses much larger than the requests, which is a misuse of their intended functionality as time synchronization tools. This misuse can lead to increased network traffic and potential impact on third parties due to DDoS attacks. The provided solution focuses on disabling specific NTP commands ("monlist" and "readvar") in ntpd.conf to prevent such abuse, indicating that the servers are being used for unauthorized purposes (misuse of resources).'}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves servers that are misconfigured as Network Time Protocol (NTP) servers. These misconfigurations allow attackers to exploit these servers for Distributed Denial of Service (DDoS) attacks by generating large responses to forged requests, consuming network resources and potentially impacting third parties. This falls under the CAT10 category, which refers to the misuse of resources for unauthorized purposes, such as cryptocurrency mining or spam campaigns in this case.'}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The incident involves servers with NTP configured in a way that can be exploited for amplification attacks. These servers consume network resources by generating responses much larger than the requests, which is a misuse of their intended functionality as time synchronization tools. This misuse can lead to increased network traffic and potential impact on third parties due to DDoS attacks. The provided solution focuses on disabling specific NTP commands ("monlist" and "readvar") in ntpd.conf to prevent such abuse, indicating that the servers are being used for unauthorized purposes (misuse of resources).</t>
+          <t>The incident involves servers that are misconfigured as Network Time Protocol (NTP) servers. These misconfigurations allow attackers to exploit these servers for Distributed Denial of Service (DDoS) attacks by generating large responses to forged requests, consuming network resources and potentially impacting third parties. This falls under the CAT10 category, which refers to the misuse of resources for unauthorized purposes, such as cryptocurrency mining or spam campaigns in this case.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -939,23 +939,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves an unauthorized phishing scam attempt using a specific IP address ([IP_ADDRESS_b7bfb2b94b]) to deceive users associated with the [ORGANIZATION_a5ae2a1393]. This action constitutes misuse of resources, as it exploits the service for malicious purposes (phishing) rather than its intended legitimate use. The sender's intention was likely to gain unauthorized access or sensitive data from the targeted users.</t>
+          <t>Category: CAT7
+Explanation: The incident description involves social engineering tactics, specifically a phishing scam. This is evident from the email's subject line and content, which attempt to deceive recipients into believing they are interacting with a legitimate source (in this case, Charqueadas) for malicious purposes (phishing). The sender claims to be "Conta Digital dos seus Serviços Vivo" but is actually impersonating the organization. This aligns with social engineering techniques used to manipulate individuals into divulging sensitive information or performing actions that compromise security.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': "The incident involves an unauthorized phishing scam attempt using a specific IP address ([IP_ADDRESS_b7bfb2b94b]) to deceive users associated with the [ORGANIZATION_a5ae2a1393]. This action constitutes misuse of resources, as it exploits the service for malicious purposes (phishing) rather than its intended legitimate use. The sender's intention was likely to gain unauthorized access or sensitive data from the targeted users."}</t>
+          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves social engineering tactics, specifically a phishing scam. This is evident from the email\'s subject line and content, which attempt to deceive recipients into believing they are interacting with a legitimate source (in this case, Charqueadas) for malicious purposes (phishing). The sender claims to be "Conta Digital dos seus Serviços Vivo" but is actually impersonating the organization. This aligns with social engineering techniques used to manipulate individuals into divulging sensitive information or performing actions that compromise security.'}</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CAT10</t>
+          <t>CAT7</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The incident involves an unauthorized phishing scam attempt using a specific IP address ([IP_ADDRESS_b7bfb2b94b]) to deceive users associated with the [ORGANIZATION_a5ae2a1393]. This action constitutes misuse of resources, as it exploits the service for malicious purposes (phishing) rather than its intended legitimate use. The sender's intention was likely to gain unauthorized access or sensitive data from the targeted users.</t>
+          <t>The incident description involves social engineering tactics, specifically a phishing scam. This is evident from the email's subject line and content, which attempt to deceive recipients into believing they are interacting with a legitimate source (in this case, Charqueadas) for malicious purposes (phishing). The sender claims to be "Conta Digital dos seus Serviços Vivo" but is actually impersonating the organization. This aligns with social engineering techniques used to manipulate individuals into divulging sensitive information or performing actions that compromise security.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -968,12 +968,12 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>Category: CAT10 (Misuse of Resources)
-Explanation: The incident involves an email server on the user's network sending fraudulent emails with the intent to extort users. This constitutes misuse of resources as it is unauthorized use of the email server for malicious purposes, such as spamming or phishing.</t>
+Explanation: The incident involves unauthorized use of an email server for sending fraudulent emails that attempt to extort users. This constitutes misuse of resources within the network, as the server is being exploited for malicious purposes rather than its intended function.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': "The incident involves an email server on the user's network sending fraudulent emails with the intent to extort users. This constitutes misuse of resources as it is unauthorized use of the email server for malicious purposes, such as spamming or phishing."}</t>
+          <t>{'Category': 'CAT10', 'Explanation': 'The incident involves unauthorized use of an email server for sending fraudulent emails that attempt to extort users. This constitutes misuse of resources within the network, as the server is being exploited for malicious purposes rather than its intended function.'}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The incident involves an email server on the user's network sending fraudulent emails with the intent to extort users. This constitutes misuse of resources as it is unauthorized use of the email server for malicious purposes, such as spamming or phishing.</t>
+          <t>The incident involves unauthorized use of an email server for sending fraudulent emails that attempt to extort users. This constitutes misuse of resources within the network, as the server is being exploited for malicious purposes rather than its intended function.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -995,23 +995,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Category: CAT4
-Explanation: The incident involves unauthorized modification of a website's content, which constitutes a data leak (CAT4). This event implies sensitive information has been exposed or altered without authorization. The fact that the altered content remains accessible indicates an ongoing issue requiring immediate attention and investigation to prevent further unauthorized disclosures.</t>
+          <t>Category: CAT7
+Explanation: The incident involves social engineering tactics, specifically phishing. The email contains a malicious link (URL_e889a2d10e) that, when clicked, leads to the defacement of a website (URL_f7fe18f541). This is an attempt to deceive recipients into following a harmful link, which aligns with CAT7: Social Engineering.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT4', 'Explanation': "The incident involves unauthorized modification of a website's content, which constitutes a data leak (CAT4). This event implies sensitive information has been exposed or altered without authorization. The fact that the altered content remains accessible indicates an ongoing issue requiring immediate attention and investigation to prevent further unauthorized disclosures."}</t>
+          <t>{'Category': 'CAT7', 'Explanation': 'The incident involves social engineering tactics, specifically phishing. The email contains a malicious link (URL_e889a2d10e) that, when clicked, leads to the defacement of a website (URL_f7fe18f541). This is an attempt to deceive recipients into following a harmful link, which aligns with CAT7: Social Engineering.'}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CAT4</t>
+          <t>CAT7</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The incident involves unauthorized modification of a website's content, which constitutes a data leak (CAT4). This event implies sensitive information has been exposed or altered without authorization. The fact that the altered content remains accessible indicates an ongoing issue requiring immediate attention and investigation to prevent further unauthorized disclosures.</t>
+          <t>The incident involves social engineering tactics, specifically phishing. The email contains a malicious link (URL_e889a2d10e) that, when clicked, leads to the defacement of a website (URL_f7fe18f541). This is an attempt to deceive recipients into following a harmful link, which aligns with CAT7: Social Engineering.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1024,12 +1024,12 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>Category: CAT7
-Explanation: The incident involves social engineering tactics, specifically phishing. The email appears to be a targeted attack designed to deceive recipients into believing that the website content has been altered, potentially leading them to click on malicious links or provide sensitive information. This aligns with the definition of CAT7 (Social Engineering) as it involves deception for gaining access or data.</t>
+Explanation: The incident involves social engineering tactics, specifically phishing, as CERT.br has received a notification about altered content on their website. This indicates an attempt to deceive the recipients into believing the alterations were legitimate, which is characteristic of social engineering attacks.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT7', 'Explanation': 'The incident involves social engineering tactics, specifically phishing. The email appears to be a targeted attack designed to deceive recipients into believing that the website content has been altered, potentially leading them to click on malicious links or provide sensitive information. This aligns with the definition of CAT7 (Social Engineering) as it involves deception for gaining access or data.'}</t>
+          <t>{'Category': 'CAT7', 'Explanation': 'The incident involves social engineering tactics, specifically phishing, as CERT.br has received a notification about altered content on their website. This indicates an attempt to deceive the recipients into believing the alterations were legitimate, which is characteristic of social engineering attacks.'}</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The incident involves social engineering tactics, specifically phishing. The email appears to be a targeted attack designed to deceive recipients into believing that the website content has been altered, potentially leading them to click on malicious links or provide sensitive information. This aligns with the definition of CAT7 (Social Engineering) as it involves deception for gaining access or data.</t>
+          <t>The incident involves social engineering tactics, specifically phishing, as CERT.br has received a notification about altered content on their website. This indicates an attempt to deceive the recipients into believing the alterations were legitimate, which is characteristic of social engineering attacks.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1051,13 +1051,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Category: CAT10 (Misuse of Resources)  
-Explanation: The incident involves unauthorized modification of a website's content. This falls under CAT10 as it describes the misuse of resources (the compromised website) for non-authorized purposes, such as altering its content without proper authorization.</t>
+          <t>Category: CAT10 (Misuse of Resources)
+Explanation: The incident involves unauthorized modification of a website content. This falls under CAT10 because it represents an instance where resources were used for non-authorized purposes, specifically to alter the website's content. In this case, the attacker gained access to the system and made changes to the website without proper authorization or consent from the legitimate users.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT10', 'Explanation': "The incident involves unauthorized modification of a website's content. This falls under CAT10 as it describes the misuse of resources (the compromised website) for non-authorized purposes, such as altering its content without proper authorization."}</t>
+          <t>{'Category': 'CAT10', 'Explanation': "The incident involves unauthorized modification of a website content. This falls under CAT10 because it represents an instance where resources were used for non-authorized purposes, specifically to alter the website's content. In this case, the attacker gained access to the system and made changes to the website without proper authorization or consent from the legitimate users."}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The incident involves unauthorized modification of a website's content. This falls under CAT10 as it describes the misuse of resources (the compromised website) for non-authorized purposes, such as altering its content without proper authorization.</t>
+          <t>The incident involves unauthorized modification of a website content. This falls under CAT10 because it represents an instance where resources were used for non-authorized purposes, specifically to alter the website's content. In this case, the attacker gained access to the system and made changes to the website without proper authorization or consent from the legitimate users.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1080,12 +1080,12 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>Category: CAT7
-Explanation: The incident involves social engineering tactics, specifically phishing, as evidenced by the email containing a malicious link that alters website content. This is an attempt to deceive recipients into taking actions that could compromise their systems or data.</t>
+Explanation: The incident involves social engineering tactics, specifically phishing, as evidenced by the email's subject line and content. The attackers manipulated the recipient(s) into believing that the website had been defaced, leading them to investigate further. This is a form of deception used to gain access or data, aligning with CAT7: Social Engineering.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT7', 'Explanation': 'The incident involves social engineering tactics, specifically phishing, as evidenced by the email containing a malicious link that alters website content. This is an attempt to deceive recipients into taking actions that could compromise their systems or data.'}</t>
+          <t>{'Category': 'CAT7', 'Explanation': "The incident involves social engineering tactics, specifically phishing, as evidenced by the email's subject line and content. The attackers manipulated the recipient(s) into believing that the website had been defaced, leading them to investigate further. This is a form of deception used to gain access or data, aligning with CAT7: Social Engineering."}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The incident involves social engineering tactics, specifically phishing, as evidenced by the email containing a malicious link that alters website content. This is an attempt to deceive recipients into taking actions that could compromise their systems or data.</t>
+          <t>The incident involves social engineering tactics, specifically phishing, as evidenced by the email's subject line and content. The attackers manipulated the recipient(s) into believing that the website had been defaced, leading them to investigate further. This is a form of deception used to gain access or data, aligning with CAT7: Social Engineering.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1108,12 +1108,12 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>Category: CAT7
-Explanation: The incident involves social engineering, specifically a phishing attack on CERT.br's email addresses. The message appears to be from "Hacked by theMx0nday" and contains malicious code (vcs for were ownados suas vadias 3:) along with a URL leading to a compromised website. This is an attempt to deceive recipients into taking actions that could lead to unauthorized access or data exfiltration, aligning with the CAT7 category of social engineering.</t>
+Explanation: This incident describes a social engineering attack, specifically phishing, as evidenced by the email's content containing a malicious link (URL_06a725cac9) that leads to a compromised website. The attackers claim to have "hacked" and "owned" the victim's website, further indicating social engineering tactics were used to deceive recipients into clicking the malicious link.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT7', 'Explanation': 'The incident involves social engineering, specifically a phishing attack on CERT.br\'s email addresses. The message appears to be from "Hacked by theMx0nday" and contains malicious code (vcs for were ownados suas vadias 3:) along with a URL leading to a compromised website. This is an attempt to deceive recipients into taking actions that could lead to unauthorized access or data exfiltration, aligning with the CAT7 category of social engineering.'}</t>
+          <t>{'Category': 'CAT7', 'Explanation': 'This incident describes a social engineering attack, specifically phishing, as evidenced by the email\'s content containing a malicious link (URL_06a725cac9) that leads to a compromised website. The attackers claim to have "hacked" and "owned" the victim\'s website, further indicating social engineering tactics were used to deceive recipients into clicking the malicious link.'}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The incident involves social engineering, specifically a phishing attack on CERT.br's email addresses. The message appears to be from "Hacked by theMx0nday" and contains malicious code (vcs for were ownados suas vadias 3:) along with a URL leading to a compromised website. This is an attempt to deceive recipients into taking actions that could lead to unauthorized access or data exfiltration, aligning with the CAT7 category of social engineering.</t>
+          <t>This incident describes a social engineering attack, specifically phishing, as evidenced by the email's content containing a malicious link (URL_06a725cac9) that leads to a compromised website. The attackers claim to have "hacked" and "owned" the victim's website, further indicating social engineering tactics were used to deceive recipients into clicking the malicious link.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
